--- a/WebRoot/2017-11-24.xlsx
+++ b/WebRoot/2017-11-24.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DataDownUtil.java</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Excel.xlsx</t>
+  </si>
+  <si>
+    <t>jsoup-1.6.1.jar</t>
+  </si>
+  <si>
+    <t>jxl.jar</t>
+  </si>
+  <si>
+    <t>jquery-3.2.1.min.js</t>
   </si>
 </sst>
 </file>
@@ -231,7 +240,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -327,13 +336,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180977</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -382,13 +391,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -437,13 +446,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -492,13 +501,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -547,13 +556,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -594,13 +603,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -649,13 +658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -696,13 +705,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -716,6 +725,171 @@
           <a:ext cx="733424" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="hexagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1790699</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="等腰三角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400299" y="628650"/>
+          <a:ext cx="1952625" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="等腰三角形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="3171826"/>
+          <a:ext cx="1733550" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="等腰三角形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="2228849"/>
+          <a:ext cx="1600200" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
@@ -1037,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H13"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,37 +1246,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
